--- a/data/trans_camb/PLURIPATOLOGIA_DISC-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA_DISC-Edad-trans_camb.xlsx
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 4,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
     </row>
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,19</t>
+          <t>0,27; 2,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,37</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,39</t>
+          <t>0,29; 2,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,05</t>
+          <t>0,13; 1,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,7</t>
+          <t>0,0; 0,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,48</t>
+          <t>0,25; 1,51</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1127,27 +1127,27 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,68</t>
+          <t>0,92; 3,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,75</t>
+          <t>0,29; 1,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,17</t>
+          <t>0,13; 1,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,88</t>
+          <t>0,98; 2,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,09</t>
+          <t>0,27; 1,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,7</t>
+          <t>1,24; 2,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,44</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,35</t>
+          <t>0,45; 2,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,69</t>
+          <t>1,84; 4,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,24</t>
+          <t>1,03; 3,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,76</t>
+          <t>1,28; 3,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 9,22</t>
+          <t>3,94; 9,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,06</t>
+          <t>0,7; 2,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,55</t>
+          <t>1,1; 2,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,36</t>
+          <t>3,31; 6,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,64</t>
+          <t>0,47; 2,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,63</t>
+          <t>0,66; 3,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,63</t>
+          <t>1,86; 4,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,13; 8,77</t>
+          <t>4,14; 8,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,43</t>
+          <t>4,19; 8,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,22</t>
+          <t>4,95; 8,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,16</t>
+          <t>2,64; 5,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,49</t>
+          <t>2,82; 5,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,97</t>
+          <t>3,81; 5,85</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,47</t>
+          <t>4,4; 8,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,74</t>
+          <t>1,94; 4,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,7</t>
+          <t>5,48; 8,54</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,42; 16,79</t>
+          <t>11,41; 16,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,88; 12,74</t>
+          <t>7,98; 12,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,71; 16,02</t>
+          <t>9,53; 16,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,9; 12,43</t>
+          <t>9,09; 12,6</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,57; 8,46</t>
+          <t>5,66; 8,57</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,55; 12,24</t>
+          <t>8,63; 12,35</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,81</t>
+          <t>0,98; 1,79</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,45</t>
+          <t>0,7; 1,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,57</t>
+          <t>2,46; 3,6</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,09</t>
+          <t>3,69; 5,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,3</t>
+          <t>3,02; 4,29</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,52; 7,21</t>
+          <t>5,49; 7,11</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,34</t>
+          <t>2,48; 3,31</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,97; 2,71</t>
+          <t>2,0; 2,7</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,28; 5,26</t>
+          <t>4,24; 5,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PLURIPATOLOGIA_DISC-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA_DISC-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,15</t>
+          <t>0,27; 2,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,52</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,07</t>
+          <t>0,13; 1,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,75</t>
+          <t>0,0; 0,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,82</t>
+          <t>0,41; 1,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,19</t>
+          <t>0,13; 1,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,09</t>
+          <t>0,28; 1,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,57</t>
+          <t>0,07; 0,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,16; 1,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,05</t>
+          <t>0,47; 2,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,31</t>
+          <t>1,03; 3,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,85</t>
+          <t>1,29; 3,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,08</t>
+          <t>0,7; 2,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,51</t>
+          <t>1,1; 2,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,48</t>
+          <t>0,48; 2,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,79</t>
+          <t>0,73; 3,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,74</t>
+          <t>4,32; 8,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,75</t>
+          <t>4,12; 8,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,2</t>
+          <t>2,56; 5,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,3</t>
+          <t>2,81; 5,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,6</t>
+          <t>4,39; 8,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,63</t>
+          <t>1,93; 4,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,41; 16,62</t>
+          <t>11,57; 16,85</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,54</t>
+          <t>7,64; 12,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,09; 12,6</t>
+          <t>9,04; 12,55</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,66; 8,57</t>
+          <t>5,69; 8,63</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,79</t>
+          <t>0,99; 1,79</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,35</t>
+          <t>0,67; 1,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,06</t>
+          <t>3,68; 5,12</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,02; 4,29</t>
+          <t>2,91; 4,35</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,31</t>
+          <t>2,5; 3,27</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,7</t>
+          <t>1,98; 2,76</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">

--- a/data/trans_camb/PLURIPATOLOGIA_DISC-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA_DISC-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,57</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
     </row>
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,06</t>
+          <t>0,27; 2,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,47</t>
+          <t>0,26; 2,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,08</t>
+          <t>0,13; 1,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,0; 0,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,51</t>
+          <t>0,24; 1,48</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1127,37 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,45</t>
+          <t>0,89; 3,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,84</t>
+          <t>0,29; 1,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,13</t>
+          <t>0,13; 1,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,97</t>
+          <t>0,9; 2,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,17</t>
+          <t>0,22; 1,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,58</t>
+          <t>0,07; 0,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,8</t>
+          <t>1,13; 2,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,45</t>
+          <t>0,17; 1,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,07</t>
+          <t>0,49; 2,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,88</t>
+          <t>1,84; 4,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,34</t>
+          <t>1,04; 3,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,93</t>
+          <t>1,37; 3,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 9,09</t>
+          <t>3,99; 9,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,05</t>
+          <t>0,7; 2,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,64</t>
+          <t>1,09; 2,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,1</t>
+          <t>3,24; 6,36</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,67</t>
+          <t>0,48; 2,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,8</t>
+          <t>0,66; 3,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,58</t>
+          <t>1,9; 4,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,88</t>
+          <t>4,13; 8,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,8</t>
+          <t>4,14; 8,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,1</t>
+          <t>4,94; 8,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,25</t>
+          <t>2,68; 5,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,4</t>
+          <t>2,85; 5,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,85</t>
+          <t>3,86; 5,97</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,5</t>
+          <t>4,29; 8,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,57</t>
+          <t>1,95; 4,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,54</t>
+          <t>5,63; 8,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,57; 16,85</t>
+          <t>11,42; 16,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,58</t>
+          <t>7,88; 12,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,53; 16,13</t>
+          <t>9,71; 16,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,04; 12,55</t>
+          <t>8,9; 12,43</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,63</t>
+          <t>5,57; 8,46</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,35</t>
+          <t>8,55; 12,24</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,79</t>
+          <t>0,98; 1,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,35</t>
+          <t>0,71; 1,45</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,6</t>
+          <t>2,44; 3,57</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,12</t>
+          <t>3,65; 5,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,91; 4,35</t>
+          <t>2,99; 4,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,11</t>
+          <t>5,52; 7,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,27</t>
+          <t>2,51; 3,34</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,76</t>
+          <t>1,97; 2,71</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,24; 5,24</t>
+          <t>4,28; 5,26</t>
         </is>
       </c>
     </row>
